--- a/01_数据结构/数据结构考题一览.xlsx
+++ b/01_数据结构/数据结构考题一览.xlsx
@@ -909,10 +909,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>链表，动态分配，以-9999结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>子串</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -943,6 +939,10 @@
   </si>
   <si>
     <t>动态，堆栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表，动态分配，以-9999结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3775,20 +3775,20 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -3822,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>144</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>145</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>144</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>144</v>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>144</v>
@@ -3957,7 +3957,7 @@
         <v>41312</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3984,39 +3984,39 @@
         <v>41312</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -4032,18 +4032,18 @@
         <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -4056,28 +4056,28 @@
         <v>132</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>132</v>
@@ -4086,25 +4086,25 @@
         <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>132</v>
@@ -4113,7 +4113,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3">
         <v>41312</v>
@@ -4121,26 +4121,26 @@
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3">
         <v>41312</v>
@@ -4148,17 +4148,17 @@
     </row>
     <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>132</v>
@@ -4175,44 +4175,44 @@
     </row>
     <row r="15" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I15" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>133</v>
@@ -4227,22 +4227,22 @@
         <v>41312</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>62</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>141</v>
@@ -4338,14 +4338,14 @@
         <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>141</v>
@@ -4354,7 +4354,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I21" s="3">
         <v>41312</v>
@@ -4549,7 +4549,7 @@
         <v>41312</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -4578,26 +4578,26 @@
     </row>
     <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I30" s="3">
         <v>41312</v>
@@ -4605,44 +4605,44 @@
     </row>
     <row r="31" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I31" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>134</v>
@@ -4651,52 +4651,52 @@
         <v>62</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I32" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I33" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>134</v>
@@ -4705,25 +4705,25 @@
         <v>62</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I34" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>134</v>
@@ -4732,25 +4732,25 @@
         <v>62</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I35" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2">
         <v>35</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>134</v>
@@ -4759,26 +4759,24 @@
         <v>62</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I36" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>134</v>
       </c>
@@ -4786,52 +4784,52 @@
         <v>62</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I37" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C38" s="2">
         <v>37</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I38" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C39" s="2">
         <v>38</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>134</v>
@@ -4840,25 +4838,25 @@
         <v>62</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I39" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2">
         <v>39</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>134</v>
@@ -4867,7 +4865,7 @@
         <v>62</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I40" s="3">
         <v>41312</v>
@@ -4875,71 +4873,71 @@
     </row>
     <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C41" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I41" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2">
         <v>41</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="I42" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>134</v>
@@ -4948,7 +4946,7 @@
         <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I43" s="3">
         <v>41312</v>
@@ -4956,16 +4954,18 @@
     </row>
     <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>90</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>115</v>
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C44" s="2">
         <v>43</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>134</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>62</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I44" s="3">
         <v>41312</v>
@@ -4981,17 +4981,17 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2">
         <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>134</v>
@@ -5000,25 +5000,25 @@
         <v>62</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I45" s="3">
         <v>41312</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C46" s="2">
         <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>134</v>
@@ -5033,19 +5033,19 @@
         <v>41312</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C47" s="2">
         <v>46</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>134</v>
@@ -5054,16 +5054,13 @@
         <v>62</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I47" s="3">
         <v>41312</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I47">
-    <sortCondition ref="C3"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
